--- a/teaching/traditional_assets/database/data/thailand/thailand_telecom_equipment.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_telecom_equipment.xlsx
@@ -590,113 +590,122 @@
           <t>Telecom. Equipment</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.106</v>
+      </c>
+      <c r="E2">
+        <v>0.117</v>
+      </c>
       <c r="G2">
-        <v>-0.2547717842323651</v>
+        <v>-0.0328537170263789</v>
       </c>
       <c r="H2">
-        <v>-0.2547717842323651</v>
+        <v>-0.0328537170263789</v>
       </c>
       <c r="I2">
-        <v>-0.2905408770738475</v>
+        <v>-0.1039279534988656</v>
       </c>
       <c r="J2">
-        <v>-0.2905408770738475</v>
+        <v>-0.09413047361076866</v>
       </c>
       <c r="K2">
-        <v>-7.05</v>
+        <v>9.25</v>
       </c>
       <c r="L2">
-        <v>-0.2925311203319502</v>
+        <v>0.2218225419664268</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.3966</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02779541734860884</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0.3672</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3.3966</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.02779541734860884</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0.3672</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>0.924</v>
+        <v>6.22</v>
       </c>
       <c r="V2">
-        <v>0.01664864864864865</v>
+        <v>0.05090016366612111</v>
       </c>
       <c r="W2">
-        <v>-0.141566265060241</v>
+        <v>0.2006507592190889</v>
       </c>
       <c r="X2">
-        <v>0.1587724821146377</v>
+        <v>0.09387730119235498</v>
       </c>
       <c r="Y2">
-        <v>-0.3003387471748787</v>
+        <v>0.106773458026734</v>
       </c>
       <c r="Z2">
-        <v>0.2617852922835434</v>
+        <v>0.4675151089519339</v>
       </c>
       <c r="AA2">
-        <v>-0.07605932842509421</v>
+        <v>-0.04400741862583565</v>
       </c>
       <c r="AB2">
-        <v>0.103571825242966</v>
+        <v>0.07959387028541649</v>
       </c>
       <c r="AC2">
-        <v>-0.1796311536680602</v>
+        <v>-0.1236012889112521</v>
       </c>
       <c r="AD2">
-        <v>33.9</v>
+        <v>26.5</v>
       </c>
       <c r="AE2">
-        <v>9.660175687398619</v>
+        <v>10.11897830451348</v>
       </c>
       <c r="AF2">
-        <v>43.56017568739862</v>
+        <v>36.61897830451348</v>
       </c>
       <c r="AG2">
-        <v>42.63617568739862</v>
+        <v>30.39897830451348</v>
       </c>
       <c r="AH2">
-        <v>0.4397344885078766</v>
+        <v>0.2305705444994215</v>
       </c>
       <c r="AI2">
-        <v>0.4858363855907638</v>
+        <v>0.416508233042485</v>
       </c>
       <c r="AJ2">
-        <v>0.4344593152194069</v>
+        <v>0.1992082689036874</v>
       </c>
       <c r="AK2">
-        <v>0.4804824566431406</v>
+        <v>0.3720851708966119</v>
       </c>
       <c r="AL2">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AM2">
-        <v>0.6019999999999999</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="AN2">
-        <v>-13.2421875</v>
+        <v>1324.999999999999</v>
       </c>
       <c r="AO2">
-        <v>-5.078571428571429</v>
+        <v>-4.026548672566372</v>
       </c>
       <c r="AP2">
-        <v>-16.65475612789009</v>
+        <v>1519.948915225673</v>
       </c>
       <c r="AQ2">
-        <v>-11.81063122923588</v>
+        <v>-6.770833333333334</v>
       </c>
     </row>
     <row r="3">
@@ -715,113 +724,122 @@
           <t>Telecom. Equipment</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.106</v>
+      </c>
+      <c r="E3">
+        <v>0.117</v>
+      </c>
       <c r="G3">
-        <v>-0.2547717842323651</v>
+        <v>-0.0328537170263789</v>
       </c>
       <c r="H3">
-        <v>-0.2547717842323651</v>
+        <v>-0.0328537170263789</v>
       </c>
       <c r="I3">
-        <v>-0.2905408770738475</v>
+        <v>-0.1039279534988656</v>
       </c>
       <c r="J3">
-        <v>-0.2905408770738475</v>
+        <v>-0.09413047361076866</v>
       </c>
       <c r="K3">
-        <v>-7.05</v>
+        <v>9.25</v>
       </c>
       <c r="L3">
-        <v>-0.2925311203319502</v>
+        <v>0.2218225419664268</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>3.3966</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02779541734860884</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.3672</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>3.3966</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02779541734860884</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.3672</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0.924</v>
+        <v>6.22</v>
       </c>
       <c r="V3">
-        <v>0.01664864864864865</v>
+        <v>0.05090016366612111</v>
       </c>
       <c r="W3">
-        <v>-0.141566265060241</v>
+        <v>0.2006507592190889</v>
       </c>
       <c r="X3">
-        <v>0.1587724821146377</v>
+        <v>0.09387730119235498</v>
       </c>
       <c r="Y3">
-        <v>-0.3003387471748787</v>
+        <v>0.106773458026734</v>
       </c>
       <c r="Z3">
-        <v>0.2617852922835434</v>
+        <v>0.4675151089519339</v>
       </c>
       <c r="AA3">
-        <v>-0.07605932842509421</v>
+        <v>-0.04400741862583565</v>
       </c>
       <c r="AB3">
-        <v>0.103571825242966</v>
+        <v>0.07959387028541649</v>
       </c>
       <c r="AC3">
-        <v>-0.1796311536680602</v>
+        <v>-0.1236012889112521</v>
       </c>
       <c r="AD3">
-        <v>33.9</v>
+        <v>26.5</v>
       </c>
       <c r="AE3">
-        <v>9.660175687398619</v>
+        <v>10.11897830451348</v>
       </c>
       <c r="AF3">
-        <v>43.56017568739862</v>
+        <v>36.61897830451348</v>
       </c>
       <c r="AG3">
-        <v>42.63617568739862</v>
+        <v>30.39897830451348</v>
       </c>
       <c r="AH3">
-        <v>0.4397344885078766</v>
+        <v>0.2305705444994215</v>
       </c>
       <c r="AI3">
-        <v>0.4858363855907638</v>
+        <v>0.416508233042485</v>
       </c>
       <c r="AJ3">
-        <v>0.4344593152194069</v>
+        <v>0.1992082689036874</v>
       </c>
       <c r="AK3">
-        <v>0.4804824566431406</v>
+        <v>0.3720851708966119</v>
       </c>
       <c r="AL3">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AM3">
-        <v>0.6019999999999999</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="AN3">
-        <v>-13.2421875</v>
+        <v>1324.999999999999</v>
       </c>
       <c r="AO3">
-        <v>-5.078571428571429</v>
+        <v>-4.026548672566372</v>
       </c>
       <c r="AP3">
-        <v>-16.65475612789009</v>
+        <v>1519.948915225673</v>
       </c>
       <c r="AQ3">
-        <v>-11.81063122923588</v>
+        <v>-6.770833333333334</v>
       </c>
     </row>
   </sheetData>
